--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Spp1-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Spp1-Itgb3.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>12.486902</v>
+        <v>2.276052666666667</v>
       </c>
       <c r="H2">
-        <v>37.460706</v>
+        <v>6.828158</v>
       </c>
       <c r="I2">
-        <v>0.01504353194025314</v>
+        <v>0.005247614157263819</v>
       </c>
       <c r="J2">
-        <v>0.01504353194025314</v>
+        <v>0.005247614157263819</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N2">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O2">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P2">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q2">
-        <v>47.18099750597801</v>
+        <v>5.913563411426889</v>
       </c>
       <c r="R2">
-        <v>424.628977553802</v>
+        <v>53.222070702842</v>
       </c>
       <c r="S2">
-        <v>0.00639797130273352</v>
+        <v>0.001818830057544352</v>
       </c>
       <c r="T2">
-        <v>0.006397971302733521</v>
+        <v>0.001818830057544352</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>12.486902</v>
+        <v>2.276052666666667</v>
       </c>
       <c r="H3">
-        <v>37.460706</v>
+        <v>6.828158</v>
       </c>
       <c r="I3">
-        <v>0.01504353194025314</v>
+        <v>0.005247614157263819</v>
       </c>
       <c r="J3">
-        <v>0.01504353194025314</v>
+        <v>0.005247614157263819</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N3">
         <v>13.00021</v>
       </c>
       <c r="O3">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P3">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q3">
-        <v>54.11078274980667</v>
+        <v>9.863054212575555</v>
       </c>
       <c r="R3">
-        <v>486.9970447482601</v>
+        <v>88.76748791317999</v>
       </c>
       <c r="S3">
-        <v>0.007337683675675708</v>
+        <v>0.0030335718437309</v>
       </c>
       <c r="T3">
-        <v>0.007337683675675709</v>
+        <v>0.0030335718437309</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>12.486902</v>
+        <v>2.276052666666667</v>
       </c>
       <c r="H4">
-        <v>37.460706</v>
+        <v>6.828158</v>
       </c>
       <c r="I4">
-        <v>0.01504353194025314</v>
+        <v>0.005247614157263819</v>
       </c>
       <c r="J4">
-        <v>0.01504353194025314</v>
+        <v>0.005247614157263819</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N4">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O4">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P4">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q4">
-        <v>6.011261219610667</v>
+        <v>1.067933774094889</v>
       </c>
       <c r="R4">
-        <v>54.101350976496</v>
+        <v>9.611403966854001</v>
       </c>
       <c r="S4">
-        <v>0.0008151560757364432</v>
+        <v>0.0003284635527941152</v>
       </c>
       <c r="T4">
-        <v>0.0008151560757364434</v>
+        <v>0.0003284635527941153</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2.276052666666667</v>
+      </c>
+      <c r="H5">
+        <v>6.828158</v>
+      </c>
+      <c r="I5">
+        <v>0.005247614157263819</v>
+      </c>
+      <c r="J5">
+        <v>0.005247614157263819</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="L5">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G5">
-        <v>12.486902</v>
-      </c>
-      <c r="H5">
-        <v>37.460706</v>
-      </c>
-      <c r="I5">
-        <v>0.01504353194025314</v>
-      </c>
-      <c r="J5">
-        <v>0.01504353194025314</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
       <c r="M5">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N5">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O5">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P5">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q5">
-        <v>3.633505340770667</v>
+        <v>0.2170201043982222</v>
       </c>
       <c r="R5">
-        <v>32.701548066936</v>
+        <v>1.953180939584</v>
       </c>
       <c r="S5">
-        <v>0.0004927208861074677</v>
+        <v>6.674870319445121E-05</v>
       </c>
       <c r="T5">
-        <v>0.0004927208861074678</v>
+        <v>6.674870319445121E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>138.256042</v>
       </c>
       <c r="I6">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="J6">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N6">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O6">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P6">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q6">
-        <v>174.1306736928127</v>
+        <v>119.7373979014398</v>
       </c>
       <c r="R6">
-        <v>1567.176063235314</v>
+        <v>1077.636581112958</v>
       </c>
       <c r="S6">
-        <v>0.02361296098224952</v>
+        <v>0.03682753750377691</v>
       </c>
       <c r="T6">
-        <v>0.02361296098224952</v>
+        <v>0.03682753750377692</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>138.256042</v>
       </c>
       <c r="I7">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="J7">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N7">
         <v>13.00021</v>
       </c>
       <c r="O7">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P7">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q7">
-        <v>199.7063977520912</v>
+        <v>199.7063977520911</v>
       </c>
       <c r="R7">
         <v>1797.35757976882</v>
       </c>
       <c r="S7">
-        <v>0.027081152780381</v>
+        <v>0.06142354002893266</v>
       </c>
       <c r="T7">
-        <v>0.027081152780381</v>
+        <v>0.06142354002893267</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>138.256042</v>
       </c>
       <c r="I8">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="J8">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N8">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O8">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P8">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q8">
-        <v>22.18573199478578</v>
+        <v>21.62344467197178</v>
       </c>
       <c r="R8">
-        <v>199.671587953072</v>
+        <v>194.611002047746</v>
       </c>
       <c r="S8">
-        <v>0.003008492489265229</v>
+        <v>0.006650705907885027</v>
       </c>
       <c r="T8">
-        <v>0.003008492489265229</v>
+        <v>0.006650705907885028</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>138.256042</v>
       </c>
       <c r="I9">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="J9">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N9">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O9">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P9">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q9">
-        <v>13.41016015557245</v>
+        <v>4.394207144668445</v>
       </c>
       <c r="R9">
-        <v>120.691441400152</v>
+        <v>39.547864302016</v>
       </c>
       <c r="S9">
-        <v>0.001818482532709108</v>
+        <v>0.001351522842953778</v>
       </c>
       <c r="T9">
-        <v>0.001818482532709108</v>
+        <v>0.001351522842953778</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>105.0040076666667</v>
+        <v>41.187613</v>
       </c>
       <c r="H10">
-        <v>315.012023</v>
+        <v>123.562839</v>
       </c>
       <c r="I10">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532416</v>
       </c>
       <c r="J10">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532417</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N10">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O10">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P10">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q10">
-        <v>396.7512377240324</v>
+        <v>107.0122694469623</v>
       </c>
       <c r="R10">
-        <v>3570.761139516291</v>
+        <v>963.1104250226609</v>
       </c>
       <c r="S10">
-        <v>0.0538013854616096</v>
+        <v>0.03291367973159284</v>
       </c>
       <c r="T10">
-        <v>0.0538013854616096</v>
+        <v>0.03291367973159284</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>105.0040076666667</v>
+        <v>41.187613</v>
       </c>
       <c r="H11">
-        <v>315.012023</v>
+        <v>123.562839</v>
       </c>
       <c r="I11">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532416</v>
       </c>
       <c r="J11">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532417</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N11">
         <v>13.00021</v>
       </c>
       <c r="O11">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P11">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q11">
-        <v>455.0247168360923</v>
+        <v>178.4825394662433</v>
       </c>
       <c r="R11">
-        <v>4095.22245152483</v>
+        <v>1606.34285519619</v>
       </c>
       <c r="S11">
-        <v>0.06170355088365608</v>
+        <v>0.0548957345922362</v>
       </c>
       <c r="T11">
-        <v>0.06170355088365608</v>
+        <v>0.05489573459223621</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>105.0040076666667</v>
+        <v>41.187613</v>
       </c>
       <c r="H12">
-        <v>315.012023</v>
+        <v>123.562839</v>
       </c>
       <c r="I12">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532416</v>
       </c>
       <c r="J12">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532417</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N12">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O12">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P12">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q12">
-        <v>50.54948931210755</v>
+        <v>19.32540649925633</v>
       </c>
       <c r="R12">
-        <v>454.945403808968</v>
+        <v>173.928658493307</v>
       </c>
       <c r="S12">
-        <v>0.006854755072648076</v>
+        <v>0.005943900110581398</v>
       </c>
       <c r="T12">
-        <v>0.006854755072648076</v>
+        <v>0.005943900110581398</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>105.0040076666667</v>
+        <v>41.187613</v>
       </c>
       <c r="H13">
-        <v>315.012023</v>
+        <v>123.562839</v>
       </c>
       <c r="I13">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532416</v>
       </c>
       <c r="J13">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532417</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N13">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O13">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P13">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q13">
-        <v>30.55462617222089</v>
+        <v>3.927211441141333</v>
       </c>
       <c r="R13">
-        <v>274.991635549988</v>
+        <v>35.344902970272</v>
       </c>
       <c r="S13">
-        <v>0.004143354989280394</v>
+        <v>0.001207889340913722</v>
       </c>
       <c r="T13">
-        <v>0.004143354989280394</v>
+        <v>0.001207889340913722</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>666.4749603333333</v>
+        <v>344.1819356666667</v>
       </c>
       <c r="H14">
-        <v>1999.424881</v>
+        <v>1032.545807</v>
       </c>
       <c r="I14">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838636</v>
       </c>
       <c r="J14">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838637</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N14">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O14">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P14">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q14">
-        <v>2518.23498264692</v>
+        <v>894.2419177906326</v>
       </c>
       <c r="R14">
-        <v>22664.11484382228</v>
+        <v>8048.177260115693</v>
       </c>
       <c r="S14">
-        <v>0.3414848350858466</v>
+        <v>0.2750412848623288</v>
       </c>
       <c r="T14">
-        <v>0.3414848350858466</v>
+        <v>0.2750412848623288</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>666.4749603333333</v>
+        <v>344.1819356666667</v>
       </c>
       <c r="H15">
-        <v>1999.424881</v>
+        <v>1032.545807</v>
       </c>
       <c r="I15">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838636</v>
       </c>
       <c r="J15">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838637</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N15">
         <v>13.00021</v>
       </c>
       <c r="O15">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P15">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q15">
-        <v>2888.104814691668</v>
+        <v>1491.479147291052</v>
       </c>
       <c r="R15">
-        <v>25992.94333222501</v>
+        <v>13423.31232561947</v>
       </c>
       <c r="S15">
-        <v>0.3916409720108731</v>
+        <v>0.458733070833686</v>
       </c>
       <c r="T15">
-        <v>0.3916409720108731</v>
+        <v>0.4587330708336861</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>666.4749603333333</v>
+        <v>344.1819356666667</v>
       </c>
       <c r="H16">
-        <v>1999.424881</v>
+        <v>1032.545807</v>
       </c>
       <c r="I16">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838636</v>
       </c>
       <c r="J16">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838637</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N16">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O16">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P16">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q16">
-        <v>320.8446004375884</v>
+        <v>161.4916556698546</v>
       </c>
       <c r="R16">
-        <v>2887.601403938296</v>
+        <v>1453.424901028691</v>
       </c>
       <c r="S16">
-        <v>0.04350807856439665</v>
+        <v>0.04966986179726462</v>
       </c>
       <c r="T16">
-        <v>0.04350807856439666</v>
+        <v>0.04966986179726463</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>666.4749603333333</v>
+        <v>344.1819356666667</v>
       </c>
       <c r="H17">
-        <v>1999.424881</v>
+        <v>1032.545807</v>
       </c>
       <c r="I17">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838636</v>
       </c>
       <c r="J17">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838637</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N17">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O17">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P17">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q17">
-        <v>193.9344384909151</v>
+        <v>32.81751811119289</v>
       </c>
       <c r="R17">
-        <v>1745.409946418236</v>
+        <v>295.357663000736</v>
       </c>
       <c r="S17">
-        <v>0.02629844720683156</v>
+        <v>0.01009365829058409</v>
       </c>
       <c r="T17">
-        <v>0.02629844720683156</v>
+        <v>0.01009365829058409</v>
       </c>
     </row>
   </sheetData>
